--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EB26DA-4CFD-498F-93D6-15A29B0A5BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F7C7B-133C-45E4-A798-7850517253A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,23 +581,23 @@
     <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1360,39 +1360,40 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="2"/>
-    <col min="5" max="5" width="22.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="49.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -1405,8 +1406,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,15 +1544,15 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -2119,12 +2120,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="I6:K6"/>
@@ -2133,6 +2128,12 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B42">

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F7C7B-133C-45E4-A798-7850517253A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CF915-96E9-4A09-B052-FA5935A9452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -539,12 +539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -581,23 +575,41 @@
     <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1361,7 +1373,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1381,19 +1393,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,8 +1418,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1428,114 +1440,114 @@
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1544,15 +1556,15 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1593,40 +1605,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="39" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1636,12 +1648,12 @@
       <c r="C13" s="14"/>
       <c r="D13" s="17"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="30"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1650,12 +1662,12 @@
       <c r="C14" s="14"/>
       <c r="D14" s="17"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1664,12 +1676,12 @@
       <c r="C15" s="14"/>
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="30"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1678,12 +1690,12 @@
       <c r="C16" s="14"/>
       <c r="D16" s="17"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1692,12 +1704,12 @@
       <c r="C17" s="14"/>
       <c r="D17" s="17"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="30"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1706,12 +1718,12 @@
       <c r="C18" s="14"/>
       <c r="D18" s="17"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="30"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1720,12 +1732,12 @@
       <c r="C19" s="14"/>
       <c r="D19" s="17"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="30"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1734,12 +1746,12 @@
       <c r="C20" s="14"/>
       <c r="D20" s="17"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="30"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1748,12 +1760,12 @@
       <c r="C21" s="14"/>
       <c r="D21" s="17"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="30"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1762,12 +1774,12 @@
       <c r="C22" s="14"/>
       <c r="D22" s="17"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="30"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1776,12 +1788,12 @@
       <c r="C23" s="14"/>
       <c r="D23" s="17"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="30"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1790,12 +1802,12 @@
       <c r="C24" s="14"/>
       <c r="D24" s="17"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1804,12 +1816,12 @@
       <c r="C25" s="14"/>
       <c r="D25" s="17"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="30"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1818,12 +1830,12 @@
       <c r="C26" s="14"/>
       <c r="D26" s="17"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="30"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1832,12 +1844,12 @@
       <c r="C27" s="14"/>
       <c r="D27" s="17"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="30"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1846,12 +1858,12 @@
       <c r="C28" s="14"/>
       <c r="D28" s="17"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="30"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1860,12 +1872,12 @@
       <c r="C29" s="14"/>
       <c r="D29" s="17"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="30"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1874,12 +1886,12 @@
       <c r="C30" s="14"/>
       <c r="D30" s="17"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="30"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1888,12 +1900,12 @@
       <c r="C31" s="14"/>
       <c r="D31" s="17"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="30"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1902,12 +1914,12 @@
       <c r="C32" s="14"/>
       <c r="D32" s="17"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="30"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1916,12 +1928,12 @@
       <c r="C33" s="14"/>
       <c r="D33" s="17"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="30"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1930,12 +1942,12 @@
       <c r="C34" s="14"/>
       <c r="D34" s="17"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="30"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1944,12 +1956,12 @@
       <c r="C35" s="14"/>
       <c r="D35" s="17"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="30"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1958,12 +1970,12 @@
       <c r="C36" s="14"/>
       <c r="D36" s="17"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="30"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1972,12 +1984,12 @@
       <c r="C37" s="14"/>
       <c r="D37" s="17"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="30"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="28"/>
       <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1986,12 +1998,12 @@
       <c r="C38" s="14"/>
       <c r="D38" s="17"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="30"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2000,12 +2012,12 @@
       <c r="C39" s="14"/>
       <c r="D39" s="17"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="30"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="28"/>
       <c r="L39" s="17"/>
     </row>
     <row r="40" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2014,12 +2026,12 @@
       <c r="C40" s="14"/>
       <c r="D40" s="17"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="30"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2028,12 +2040,12 @@
       <c r="C41" s="14"/>
       <c r="D41" s="17"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="30"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="28"/>
       <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2042,12 +2054,12 @@
       <c r="C42" s="14"/>
       <c r="D42" s="17"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="30"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="28"/>
       <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2056,70 +2068,76 @@
       <c r="C43" s="14"/>
       <c r="D43" s="17"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="32" t="s">
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="30" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="32">
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="30">
         <v>0</v>
       </c>
-      <c r="L45" s="27"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="26" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="32" t="s">
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L46" s="27"/>
+      <c r="L46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="I6:K6"/>
@@ -2128,12 +2146,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B42">

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CF915-96E9-4A09-B052-FA5935A9452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB1AD1-0E19-4A88-89E2-9A73AA20D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -575,41 +575,26 @@
     <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1373,7 +1358,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1393,19 +1378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -1418,8 +1403,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1556,15 +1541,15 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1605,40 +1590,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2132,12 +2117,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="I6:K6"/>
@@ -2146,6 +2125,12 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B42">

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB1AD1-0E19-4A88-89E2-9A73AA20D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4782CF2-768E-45C4-B40E-20CCB5682A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,9 +541,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,26 +572,29 @@
     <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1378,19 +1378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,8 +1403,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,15 +1541,15 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1608,22 +1608,22 @@
       <c r="F12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1634,12 +1634,12 @@
       <c r="D13" s="17"/>
       <c r="E13" s="14"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="17"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
@@ -1648,12 +1648,12 @@
       <c r="D14" s="17"/>
       <c r="E14" s="14"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
@@ -1662,12 +1662,12 @@
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
@@ -1676,12 +1676,12 @@
       <c r="D16" s="17"/>
       <c r="E16" s="14"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
@@ -1690,12 +1690,12 @@
       <c r="D17" s="17"/>
       <c r="E17" s="14"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="17"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
@@ -1704,12 +1704,12 @@
       <c r="D18" s="17"/>
       <c r="E18" s="14"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="17"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
@@ -1718,12 +1718,12 @@
       <c r="D19" s="17"/>
       <c r="E19" s="14"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="17"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
@@ -1732,12 +1732,12 @@
       <c r="D20" s="17"/>
       <c r="E20" s="14"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="17"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
@@ -1746,12 +1746,12 @@
       <c r="D21" s="17"/>
       <c r="E21" s="14"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="17"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
@@ -1760,12 +1760,12 @@
       <c r="D22" s="17"/>
       <c r="E22" s="14"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="17"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
@@ -1774,12 +1774,12 @@
       <c r="D23" s="17"/>
       <c r="E23" s="14"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="17"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
@@ -1788,12 +1788,12 @@
       <c r="D24" s="17"/>
       <c r="E24" s="14"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="17"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
@@ -1802,12 +1802,12 @@
       <c r="D25" s="17"/>
       <c r="E25" s="14"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="17"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
@@ -1816,12 +1816,12 @@
       <c r="D26" s="17"/>
       <c r="E26" s="14"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="17"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
@@ -1830,12 +1830,12 @@
       <c r="D27" s="17"/>
       <c r="E27" s="14"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="17"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="37"/>
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
@@ -1844,12 +1844,12 @@
       <c r="D28" s="17"/>
       <c r="E28" s="14"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="17"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
@@ -1858,12 +1858,12 @@
       <c r="D29" s="17"/>
       <c r="E29" s="14"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="17"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
@@ -1872,12 +1872,12 @@
       <c r="D30" s="17"/>
       <c r="E30" s="14"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="17"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
@@ -1886,12 +1886,12 @@
       <c r="D31" s="17"/>
       <c r="E31" s="14"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="17"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="37"/>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
@@ -1900,12 +1900,12 @@
       <c r="D32" s="17"/>
       <c r="E32" s="14"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="17"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
@@ -1914,12 +1914,12 @@
       <c r="D33" s="17"/>
       <c r="E33" s="14"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="17"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
@@ -1928,12 +1928,12 @@
       <c r="D34" s="17"/>
       <c r="E34" s="14"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="17"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
@@ -1942,12 +1942,12 @@
       <c r="D35" s="17"/>
       <c r="E35" s="14"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="17"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
@@ -1956,12 +1956,12 @@
       <c r="D36" s="17"/>
       <c r="E36" s="14"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="17"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
@@ -1970,12 +1970,12 @@
       <c r="D37" s="17"/>
       <c r="E37" s="14"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="17"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
@@ -1984,12 +1984,12 @@
       <c r="D38" s="17"/>
       <c r="E38" s="14"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="17"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="37"/>
     </row>
     <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
@@ -1998,12 +1998,12 @@
       <c r="D39" s="17"/>
       <c r="E39" s="14"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="17"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="37"/>
     </row>
     <row r="40" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
@@ -2012,12 +2012,12 @@
       <c r="D40" s="17"/>
       <c r="E40" s="14"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="17"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
@@ -2026,12 +2026,12 @@
       <c r="D41" s="17"/>
       <c r="E41" s="14"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="17"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="37"/>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
@@ -2040,12 +2040,12 @@
       <c r="D42" s="17"/>
       <c r="E42" s="14"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="17"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
@@ -2054,69 +2054,75 @@
       <c r="D43" s="17"/>
       <c r="E43" s="14"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="37"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="30" t="s">
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="29" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23" t="s">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="30">
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="29">
         <v>0</v>
       </c>
-      <c r="L45" s="25"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="24" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="30" t="s">
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L46" s="25"/>
+      <c r="L46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="I6:K6"/>
@@ -2125,12 +2131,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B42">

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4782CF2-768E-45C4-B40E-20CCB5682A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20C371-FA4E-4DDC-BF0B-44DF8B90D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>小计</t>
   </si>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ContractedSupplier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,6 +274,16 @@
   <si>
     <t>SubtotalWorkHour</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemarkContent</t>
+  </si>
+  <si>
+    <t>是否收费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCharged</t>
   </si>
 </sst>
 </file>
@@ -575,26 +581,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1355,10 +1361,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1377,23 +1383,24 @@
     <col min="12" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1403,11 +1410,12 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1420,138 +1428,145 @@
       <c r="J3" s="6"/>
       <c r="K3" s="9"/>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -1586,48 +1601,54 @@
         <v>0</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="H12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="I12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="J12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>30</v>
-      </c>
       <c r="K12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1639,9 +1660,10 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1653,9 +1675,10 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1667,9 +1690,10 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1681,9 +1705,10 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1695,9 +1720,10 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1709,9 +1735,10 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1723,9 +1750,10 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1737,9 +1765,10 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1751,9 +1780,10 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="27"/>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1765,9 +1795,10 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1779,9 +1810,10 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1793,9 +1825,10 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="37"/>
-    </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1807,9 +1840,10 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1821,9 +1855,10 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="37"/>
-    </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1835,9 +1870,10 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1849,9 +1885,10 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1863,9 +1900,10 @@
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="27"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1877,9 +1915,10 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="27"/>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1891,9 +1930,10 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="27"/>
-      <c r="L31" s="37"/>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1905,9 +1945,10 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="37"/>
-    </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1919,9 +1960,10 @@
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1933,9 +1975,10 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="27"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1947,9 +1990,10 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="27"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1961,9 +2005,10 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="37"/>
-    </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1975,9 +2020,10 @@
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="27"/>
-      <c r="L37" s="37"/>
-    </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1989,9 +2035,10 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="27"/>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2003,9 +2050,10 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2017,9 +2065,10 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="27"/>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+    </row>
+    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2031,9 +2080,10 @@
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="27"/>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+    </row>
+    <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2045,9 +2095,10 @@
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="27"/>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2059,34 +2110,36 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="37"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="15"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -2096,8 +2149,9 @@
         <v>0</v>
       </c>
       <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="25"/>
@@ -2111,18 +2165,13 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="I6:K6"/>
@@ -2131,6 +2180,12 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B42">

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20C371-FA4E-4DDC-BF0B-44DF8B90D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F2326-9B91-4804-82D7-5E65B813B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,8 +1363,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1660,7 +1660,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="31"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1675,7 +1675,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="31"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1690,7 +1690,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="31"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1705,7 +1705,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="31"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1720,7 +1720,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="31"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1735,7 +1735,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="31"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1750,7 +1750,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="31"/>
+      <c r="L19" s="17"/>
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1765,7 +1765,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="31"/>
+      <c r="L20" s="17"/>
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1780,7 +1780,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="27"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="31"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1795,7 +1795,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="31"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="31"/>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1810,7 +1810,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="31"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1825,7 +1825,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="31"/>
+      <c r="L24" s="17"/>
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1840,7 +1840,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="31"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1855,7 +1855,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="31"/>
+      <c r="L26" s="17"/>
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1870,7 +1870,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="31"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1885,7 +1885,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="31"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1900,7 +1900,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="27"/>
-      <c r="L29" s="31"/>
+      <c r="L29" s="17"/>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1915,7 +1915,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="27"/>
-      <c r="L30" s="31"/>
+      <c r="L30" s="17"/>
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1930,7 +1930,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="27"/>
-      <c r="L31" s="31"/>
+      <c r="L31" s="17"/>
       <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1945,7 +1945,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="31"/>
+      <c r="L32" s="17"/>
       <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1960,7 +1960,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="31"/>
+      <c r="L33" s="17"/>
       <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1975,7 +1975,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="27"/>
-      <c r="L34" s="31"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1990,7 +1990,7 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="27"/>
-      <c r="L35" s="31"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2005,7 +2005,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="17"/>
       <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2020,7 +2020,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
       <c r="K37" s="27"/>
-      <c r="L37" s="31"/>
+      <c r="L37" s="17"/>
       <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2035,7 +2035,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="27"/>
-      <c r="L38" s="31"/>
+      <c r="L38" s="17"/>
       <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2050,7 +2050,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="31"/>
+      <c r="L39" s="17"/>
       <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2065,7 +2065,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="27"/>
-      <c r="L40" s="31"/>
+      <c r="L40" s="17"/>
       <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2080,7 +2080,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="27"/>
-      <c r="L41" s="31"/>
+      <c r="L41" s="17"/>
       <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2095,7 +2095,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="27"/>
-      <c r="L42" s="31"/>
+      <c r="L42" s="17"/>
       <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2110,7 +2110,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
-      <c r="L43" s="31"/>
+      <c r="L43" s="17"/>
       <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
       <c r="K45" s="29">
         <v>0</v>
       </c>
-      <c r="L45" s="24"/>
+      <c r="L45" s="21"/>
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
       <c r="K46" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="24"/>
+      <c r="L46" s="21"/>
       <c r="M46" s="24"/>
     </row>
   </sheetData>

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F2326-9B91-4804-82D7-5E65B813B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234BE5D-35B4-4141-AEDD-28CC4D3C8F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,10 +290,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -493,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -584,23 +585,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1363,8 +1367,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1384,19 +1388,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -1410,8 +1414,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
@@ -1556,15 +1560,15 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -2126,7 +2130,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="38" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="17"/>
@@ -2172,6 +2176,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="I6:K6"/>
@@ -2180,12 +2190,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B42">

--- a/MyNetCore/Excel/日志导出模板.xlsx
+++ b/MyNetCore/Excel/日志导出模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSite\MyNetCore\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16273\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03BDCD-60ED-41B6-AD80-7D9C7E867DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD2C42A-0347-4621-89ED-DBE321E226AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,41 +637,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1005,7 +1008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="25.15" x14ac:dyDescent="0.4"/>
@@ -1032,19 +1035,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
@@ -1058,8 +1061,8 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
@@ -1091,11 +1094,11 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
@@ -1112,9 +1115,9 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
@@ -1131,11 +1134,11 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
@@ -1152,9 +1155,9 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
@@ -1171,11 +1174,11 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
@@ -1192,9 +1195,9 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
@@ -1204,15 +1207,15 @@
       <c r="C10" s="13"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1813,7 +1816,7 @@
       <c r="H46" s="31"/>
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
-      <c r="K46" s="37" t="s">
+      <c r="K46" s="58" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="29"/>
@@ -1821,6 +1824,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="I4:K5"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -1828,11 +1836,6 @@
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="I4:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B12:C12">
